--- a/data/trans_orig/P23_1_2016_2023_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>491728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>458387</v>
+        <v>457587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>524673</v>
+        <v>524546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4359302593220283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.406372199816317</v>
+        <v>0.4056636403610246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4651368960459632</v>
+        <v>0.4650240750346946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>385</v>
@@ -763,19 +763,19 @@
         <v>398385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>364115</v>
+        <v>364897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>433656</v>
+        <v>428696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.316567434440286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2893356774491858</v>
+        <v>0.2899570417711723</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3445951772571324</v>
+        <v>0.3406537455966779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>839</v>
@@ -784,19 +784,19 @@
         <v>890113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>845074</v>
+        <v>843060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>942917</v>
+        <v>936152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3729863809838141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3541136488813804</v>
+        <v>0.3532697797768709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3951129433754341</v>
+        <v>0.3922780972031483</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>636269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>603324</v>
+        <v>603451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669610</v>
+        <v>670410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5640697406779717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5348631039540368</v>
+        <v>0.5349759249653053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.593627800183683</v>
+        <v>0.5943363596389754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>802</v>
@@ -834,19 +834,19 @@
         <v>860067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>824796</v>
+        <v>829756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>894337</v>
+        <v>893555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6834325655597141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6554048227428677</v>
+        <v>0.6593462544033221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7106643225508142</v>
+        <v>0.7100429582288275</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1414</v>
@@ -855,19 +855,19 @@
         <v>1496336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1443532</v>
+        <v>1450297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1541375</v>
+        <v>1543389</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6270136190161858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6048870566245659</v>
+        <v>0.6077219027968517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6458863511186196</v>
+        <v>0.6467302202231291</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>325041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298544</v>
+        <v>296260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>355182</v>
+        <v>353495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3576498167230042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3284946716353431</v>
+        <v>0.3259815027053218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3908149914609225</v>
+        <v>0.3889577955281822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -980,19 +980,19 @@
         <v>261838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2609932976802994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>562</v>
@@ -1001,19 +1001,19 @@
         <v>586879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>545140</v>
+        <v>548490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>626746</v>
+        <v>627264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3069352994037804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2851059165418576</v>
+        <v>0.286857945126154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3277858657524362</v>
+        <v>0.328056601352314</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>583784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553643</v>
+        <v>555330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>610281</v>
+        <v>612565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6423501832769958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6091850085390775</v>
+        <v>0.6110422044718177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.671505328364657</v>
+        <v>0.6740184972946781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>693</v>
@@ -1051,19 +1051,19 @@
         <v>741397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>712489</v>
+        <v>712550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>767468</v>
+        <v>767757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7390067023197007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7101919457462816</v>
+        <v>0.710252424128699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7649933221643108</v>
+        <v>0.765281715174742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1267</v>
@@ -1072,19 +1072,19 @@
         <v>1325181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1285314</v>
+        <v>1284796</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1366920</v>
+        <v>1363570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6930647005962195</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6722141342475638</v>
+        <v>0.671943398647686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7148940834581424</v>
+        <v>0.7131420548738461</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>223339</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200205</v>
+        <v>198487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253430</v>
+        <v>252199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2717599502692072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2436114252374927</v>
+        <v>0.2415202719129201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.308375030441744</v>
+        <v>0.3068778583128914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -1197,19 +1197,19 @@
         <v>164337</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.213433611816756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1218,19 +1218,19 @@
         <v>387676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>352858</v>
+        <v>354526</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425408</v>
+        <v>426014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2435467755560954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2216730064994028</v>
+        <v>0.2227214070281185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2672509145290448</v>
+        <v>0.2676312608523251</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>598484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568393</v>
+        <v>569624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621618</v>
+        <v>623336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7282400497307928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6916249695582553</v>
+        <v>0.6931221416871083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7563885747625071</v>
+        <v>0.7584797280870798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -1268,19 +1268,19 @@
         <v>605633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583444</v>
+        <v>581654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>628449</v>
+        <v>629087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.786566388183244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7577484626681521</v>
+        <v>0.755423815588547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8161992246276852</v>
+        <v>0.8170281477534077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1145</v>
@@ -1289,19 +1289,19 @@
         <v>1204117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1166385</v>
+        <v>1165779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1238935</v>
+        <v>1237267</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7564532244439046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7327490854709547</v>
+        <v>0.7323687391476748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7783269935005966</v>
+        <v>0.7772785929718812</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>126976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108524</v>
+        <v>108888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148752</v>
+        <v>148534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2505944264700471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2141781222019306</v>
+        <v>0.2148958072402475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.293570144884684</v>
+        <v>0.2931385444441461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1414,19 +1414,19 @@
         <v>91541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74675</v>
+        <v>75374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111062</v>
+        <v>110914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1869329849540355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.152491442039641</v>
+        <v>0.1539197231765556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2267973905559016</v>
+        <v>0.2264952946027251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1435,19 +1435,19 @@
         <v>218517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194145</v>
+        <v>194147</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>248330</v>
+        <v>244981</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2193068908856419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1948470044801549</v>
+        <v>0.194848909059489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2492273434089148</v>
+        <v>0.2458662092624142</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>379725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357949</v>
+        <v>358167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>398177</v>
+        <v>397813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.749405573529953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.706429855115316</v>
+        <v>0.7068614555558539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7858218777980694</v>
+        <v>0.7851041927597525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>367</v>
@@ -1485,19 +1485,19 @@
         <v>398157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378636</v>
+        <v>378784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415023</v>
+        <v>414324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8130670150459645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7732026094440984</v>
+        <v>0.7735047053972749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.847508557960359</v>
+        <v>0.8460802768234443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -1506,19 +1506,19 @@
         <v>777881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>748068</v>
+        <v>751417</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>802253</v>
+        <v>802251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7806931091143581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7507726565910853</v>
+        <v>0.7541337907375858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8051529955198451</v>
+        <v>0.8051510909405108</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1167084</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1110860</v>
+        <v>1111639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1225218</v>
+        <v>1224120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3467947091024365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.330088042222586</v>
+        <v>0.3303193424909384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3640690329668763</v>
+        <v>0.3637427981879039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>888</v>
@@ -1631,19 +1631,19 @@
         <v>916100</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>862721</v>
+        <v>866379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>967838</v>
+        <v>972982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2601557468561811</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2449970746807334</v>
+        <v>0.2460357321135959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2748483405068989</v>
+        <v>0.2763091882495922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1973</v>
@@ -1652,19 +1652,19 @@
         <v>2083185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2007942</v>
+        <v>2000555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2160240</v>
+        <v>2159180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3024938880457881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.291568033669645</v>
+        <v>0.2904954449009193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3136828476348661</v>
+        <v>0.3135289535178177</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2198262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2140128</v>
+        <v>2141226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2254486</v>
+        <v>2253707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6532052908975635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6359309670331238</v>
+        <v>0.6362572018120961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6699119577774141</v>
+        <v>0.6696806575090617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2429</v>
@@ -1702,19 +1702,19 @@
         <v>2605254</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2553516</v>
+        <v>2548372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2658633</v>
+        <v>2654975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7398442531438189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7251516594931011</v>
+        <v>0.7236908117504078</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7550029253192666</v>
+        <v>0.7539642678864041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4547</v>
@@ -1723,19 +1723,19 @@
         <v>4803515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4726460</v>
+        <v>4727520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4878758</v>
+        <v>4886145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6975061119542119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6863171523651339</v>
+        <v>0.6864710464821823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.708431966330355</v>
+        <v>0.7095045550990806</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>188420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164525</v>
+        <v>164269</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>212356</v>
+        <v>212964</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3777935671829161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3298825569731327</v>
+        <v>0.329368875985713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4257851733808212</v>
+        <v>0.4270040602663285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -2088,19 +2088,19 @@
         <v>145323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129140</v>
+        <v>127020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164790</v>
+        <v>164718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.233046562385654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2070938897737542</v>
+        <v>0.203694084951034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2642650977466133</v>
+        <v>0.2641494528059115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>369</v>
@@ -2109,19 +2109,19 @@
         <v>333744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306141</v>
+        <v>303582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>367239</v>
+        <v>364481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.297369617129087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2727754926104542</v>
+        <v>0.2704946320609251</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3272137784224405</v>
+        <v>0.3247567665858586</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>310319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286383</v>
+        <v>285775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334214</v>
+        <v>334470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.622206432817084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5742148266191787</v>
+        <v>0.5729959397336715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6701174430268676</v>
+        <v>0.6706311240142868</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -2159,19 +2159,19 @@
         <v>478257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458790</v>
+        <v>458862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>494440</v>
+        <v>496560</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.766953437614346</v>
+        <v>0.7669534376143459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7357349022533868</v>
+        <v>0.7358505471940885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7929061102262458</v>
+        <v>0.7963059150489659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>947</v>
@@ -2180,19 +2180,19 @@
         <v>788576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755081</v>
+        <v>757839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>816179</v>
+        <v>818738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7026303828709131</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6727862215775596</v>
+        <v>0.6752432334141413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7272245073895458</v>
+        <v>0.7295053679390748</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>252199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221767</v>
+        <v>220895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>283353</v>
+        <v>285531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.26267016499927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2309747146960367</v>
+        <v>0.2300658340650064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2951167991181999</v>
+        <v>0.2973852682702848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -2305,19 +2305,19 @@
         <v>219581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197666</v>
+        <v>196943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>243408</v>
+        <v>246220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1967840694512195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1771439663030768</v>
+        <v>0.1764960470033874</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2181374116749341</v>
+        <v>0.2206570003058645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>506</v>
@@ -2326,19 +2326,19 @@
         <v>471781</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>434836</v>
+        <v>434454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511218</v>
+        <v>513279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2272561714863977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2094598605811264</v>
+        <v>0.2092761136223507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2462530584291151</v>
+        <v>0.2472457096534826</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>707938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676784</v>
+        <v>674606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>738370</v>
+        <v>739242</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.73732983500073</v>
+        <v>0.7373298350007301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7048832008818005</v>
+        <v>0.7026147317297153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7690252853039639</v>
+        <v>0.7699341659349935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1319</v>
@@ -2376,19 +2376,19 @@
         <v>896268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>872441</v>
+        <v>869629</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>918183</v>
+        <v>918906</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8032159305487805</v>
+        <v>0.8032159305487804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7818625883250659</v>
+        <v>0.7793429996941355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.822856033696923</v>
+        <v>0.8235039529966125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2011</v>
@@ -2397,19 +2397,19 @@
         <v>1604205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1564768</v>
+        <v>1562707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1641150</v>
+        <v>1641532</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7727438285136023</v>
+        <v>0.7727438285136022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.753746941570885</v>
+        <v>0.7527542903465174</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7905401394188737</v>
+        <v>0.7907238863776493</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>246371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217991</v>
+        <v>214615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>276565</v>
+        <v>276439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2354282697294571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2083085690613595</v>
+        <v>0.2050827305500413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2642814307002025</v>
+        <v>0.2641613407420326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>257</v>
@@ -2522,19 +2522,19 @@
         <v>180673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159018</v>
+        <v>158708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202839</v>
+        <v>202540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.17245671273545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1517869597162724</v>
+        <v>0.151490919482648</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1936145191546766</v>
+        <v>0.1933297257261206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>481</v>
@@ -2543,19 +2543,19 @@
         <v>427044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390735</v>
+        <v>392973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>462898</v>
+        <v>466042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2039250148186409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1865865674329229</v>
+        <v>0.1876552827763308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2210465127849826</v>
+        <v>0.2225477213253867</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>800108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>769914</v>
+        <v>770040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>828488</v>
+        <v>831864</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7645717302705429</v>
+        <v>0.7645717302705428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7357185692997974</v>
+        <v>0.7358386592579672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7916914309386405</v>
+        <v>0.7949172694499586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1259</v>
@@ -2593,19 +2593,19 @@
         <v>866969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844803</v>
+        <v>845102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>888624</v>
+        <v>888934</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8275432872645501</v>
+        <v>0.8275432872645502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8063854808453234</v>
+        <v>0.8066702742738794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8482130402837278</v>
+        <v>0.848509080517352</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2064</v>
@@ -2614,19 +2614,19 @@
         <v>1667077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1631223</v>
+        <v>1628079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1703386</v>
+        <v>1701148</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.796074985181359</v>
+        <v>0.7960749851813592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7789534872150173</v>
+        <v>0.7774522786746133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8134134325670771</v>
+        <v>0.8123447172236692</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>203610</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174051</v>
+        <v>174198</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234868</v>
+        <v>233998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2088764723809488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1785532240233393</v>
+        <v>0.1787036312541325</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2409429099715397</v>
+        <v>0.2400505303295179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -2739,19 +2739,19 @@
         <v>157376</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135985</v>
+        <v>137247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>177958</v>
+        <v>181198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1739406752278919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1502983228858855</v>
+        <v>0.1516930781685701</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1966891971896267</v>
+        <v>0.2002692754485267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>394</v>
@@ -2760,19 +2760,19 @@
         <v>360987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324189</v>
+        <v>324724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>401936</v>
+        <v>397451</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1920592878751386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.172481701740004</v>
+        <v>0.1727661322456187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2138459043477817</v>
+        <v>0.2114596305703131</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>771177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>739919</v>
+        <v>740789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>800736</v>
+        <v>800589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7911235276190512</v>
+        <v>0.7911235276190511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7590570900284601</v>
+        <v>0.759949469670482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8214467759766607</v>
+        <v>0.8212963687458675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1107</v>
@@ -2810,19 +2810,19 @@
         <v>747394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>726812</v>
+        <v>723572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>768785</v>
+        <v>767523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8260593247721082</v>
+        <v>0.8260593247721081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8033108028103729</v>
+        <v>0.799730724551473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8497016771141143</v>
+        <v>0.8483069218314297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1870</v>
@@ -2831,19 +2831,19 @@
         <v>1518571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1477622</v>
+        <v>1482107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1555369</v>
+        <v>1554834</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8079407121248613</v>
+        <v>0.8079407121248614</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7861540956522187</v>
+        <v>0.788540369429687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8275182982599963</v>
+        <v>0.8272338677543813</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>890601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>833412</v>
+        <v>837685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>945991</v>
+        <v>948635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2559092570525816</v>
+        <v>0.2559092570525817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2394764436179216</v>
+        <v>0.2407042721667453</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2718254384342607</v>
+        <v>0.27258502222372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>947</v>
@@ -2956,19 +2956,19 @@
         <v>702954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>664131</v>
+        <v>662158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>749059</v>
+        <v>748827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.190407360702716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.179891592975354</v>
+        <v>0.1793572353453868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2028957942067329</v>
+        <v>0.2028329443416232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1750</v>
@@ -2977,19 +2977,19 @@
         <v>1593554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1521617</v>
+        <v>1519632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1663842</v>
+        <v>1665580</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2221915845426553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2121611729053158</v>
+        <v>0.2118844046516752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2319918362859583</v>
+        <v>0.2322341699280495</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2589542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2534152</v>
+        <v>2531508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2646731</v>
+        <v>2642458</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7440907429474183</v>
+        <v>0.7440907429474185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7281745615657393</v>
+        <v>0.7274149777762802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7605235563820784</v>
+        <v>0.7592957278332547</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4355</v>
@@ -3027,19 +3027,19 @@
         <v>2988887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2942782</v>
+        <v>2943014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3027710</v>
+        <v>3029683</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.809592639297284</v>
+        <v>0.8095926392972841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7971042057932667</v>
+        <v>0.7971670556583768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8201084070246458</v>
+        <v>0.8206427646546133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6892</v>
@@ -3048,19 +3048,19 @@
         <v>5578430</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5508142</v>
+        <v>5506404</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5650367</v>
+        <v>5652352</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7778084154573448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7680081637140419</v>
+        <v>0.7677658300719507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7878388270946843</v>
+        <v>0.788115595348325</v>
       </c>
     </row>
     <row r="18">
